--- a/content/docs/course/specification_tables_odcm.xlsx
+++ b/content/docs/course/specification_tables_odcm.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannesdatta/research/course-odcm/content/docs/course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tilburgu-my.sharepoint.com/personal/h_datta_tilburguniversity_edu/Documents/Teaching/odcm-08-fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE3FCC5-CD8C-FE4F-AB66-8C1180079666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{68D33FC1-BEF2-4924-953B-C5D51D6785E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CE1433A-FC94-494A-B30F-8E8604319BCE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exam (50%)" sheetId="1" r:id="rId1"/>
-    <sheet name="Team assignments (50%)" sheetId="5" r:id="rId2"/>
+    <sheet name="Exam (60%)" sheetId="1" r:id="rId1"/>
+    <sheet name="Team assignments (40%)" sheetId="5" r:id="rId2"/>
     <sheet name="Explanation skills" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Exam (50%)'!$A$1:$J$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Team assignments (50%)'!$A$1:$J$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Exam (60%)'!$A$1:$J$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Team assignments (40%)'!$A$1:$J$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Specification table</t>
   </si>
@@ -597,12 +597,6 @@
     <t>Deduce from, conclude, design, draw, devise, put together, unravel</t>
   </si>
   <si>
-    <t>Computer exam (50%), open and closed questions</t>
-  </si>
-  <si>
-    <t>Team assignment (50%; 10% individual component assessed via self- and peer assessment)</t>
-  </si>
-  <si>
     <t>points</t>
   </si>
   <si>
@@ -610,6 +604,15 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>Computer exam (60%), open and closed questions</t>
+  </si>
+  <si>
+    <t>Team assignment (40%; 8% individual component assessed via self- and peer assessment)</t>
+  </si>
+  <si>
+    <t>328060-M3 (fall, block 1; spring, block 3)</t>
   </si>
 </sst>
 </file>
@@ -844,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -854,9 +857,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -876,9 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -943,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,10 +1027,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,155 +1332,155 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" zoomScaleSheetLayoutView="108" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="2" customWidth="1"/>
-    <col min="4" max="10" width="15.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="2" customWidth="1"/>
+    <col min="4" max="10" width="15.42578125" style="2" customWidth="1"/>
     <col min="11" max="19" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="16384" width="20.1640625" style="2"/>
+    <col min="20" max="16384" width="20.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="76" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="31" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+    </row>
+    <row r="7" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="30">
+      <c r="C7" s="20"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="28">
         <v>0.1</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="23">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="21">
         <f>SUM(D7:I7)</f>
         <v>0.1</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f>L7/5</f>
         <v>2</v>
       </c>
@@ -1492,33 +1488,33 @@
         <f>100*J7</f>
         <v>10</v>
       </c>
-      <c r="M7" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="M7" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="30">
+      <c r="C8" s="23"/>
+      <c r="D8" s="28">
         <v>0.05</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="36">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="34">
         <v>0.15</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="23">
+      <c r="I8" s="17"/>
+      <c r="J8" s="21">
         <f>SUM(D8:I8)</f>
         <v>0.2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f>L8/5</f>
         <v>4</v>
       </c>
@@ -1527,27 +1523,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+    <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="36">
+      <c r="C9" s="24"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="34">
         <v>0.2</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="23">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="21">
         <f t="shared" ref="J9" si="0">SUM(D9:I9)</f>
         <v>0.2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <f>L9/5</f>
         <v>4</v>
       </c>
@@ -1559,29 +1555,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="36">
+      <c r="C10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="34">
         <v>0.15</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="36">
+      <c r="H10" s="17"/>
+      <c r="I10" s="34">
         <v>0.25</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="21">
         <f>SUM(D10:I10)</f>
         <v>0.4</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <f>L10/5</f>
         <v>8</v>
       </c>
@@ -1589,31 +1585,31 @@
         <f>100*J10</f>
         <v>40</v>
       </c>
-      <c r="M10" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="M10" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="30">
+      <c r="C11" s="24"/>
+      <c r="D11" s="28">
         <v>0.1</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="23">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="21">
         <f>SUM(D11:I11)</f>
         <v>0.1</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <f>L11/5</f>
         <v>2</v>
       </c>
@@ -1621,63 +1617,63 @@
         <f>100*J11</f>
         <v>10</v>
       </c>
-      <c r="M11" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="31" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20" t="s">
+      <c r="M11" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28">
+      <c r="C12" s="25"/>
+      <c r="D12" s="26">
         <f>SUM(D7:D11)</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <f t="shared" ref="E12:I12" si="1">SUM(E7:E11)</f>
         <v>0.1</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="26">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="26">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="21">
         <f>SUM(J7:J11)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="29">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="27">
         <f>SUM(D12:I12)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1687,7 +1683,7 @@
     <mergeCell ref="D5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1699,288 +1695,290 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="104" zoomScaleSheetLayoutView="108" workbookViewId="0"/>
+    <sheetView zoomScale="111" zoomScaleNormal="104" zoomScaleSheetLayoutView="108" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="2" customWidth="1"/>
-    <col min="4" max="10" width="15.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="20.1640625" style="2"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="2" customWidth="1"/>
+    <col min="4" max="10" width="15.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="20.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="76" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="31" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="23">
+      <c r="C7" s="20"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="21">
         <f>SUM(D7:I7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="30">
+      <c r="C8" s="23"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="28">
         <v>0.15</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="23">
+      <c r="I8" s="17"/>
+      <c r="J8" s="21">
         <f>SUM(D8:I8)</f>
         <v>0.15</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="30">
+      <c r="C9" s="24"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="28">
         <v>0.2</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="23">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="21">
         <f t="shared" ref="J9" si="0">SUM(D9:I9)</f>
         <v>0.2</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="30">
+      <c r="C10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="28">
         <v>0.5</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="21">
         <f>SUM(D10:I10)</f>
         <v>0.5</v>
       </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="30">
+      <c r="C11" s="24"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="28">
         <v>0.15</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="23">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="21">
         <f>SUM(D11:I11)</f>
         <v>0.15</v>
       </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="31" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20" t="s">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28">
+      <c r="C12" s="25"/>
+      <c r="D12" s="26">
         <f>SUM(D7:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <f t="shared" ref="E12:I12" si="1">SUM(E7:E11)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="26">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="26">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="21">
         <f>SUM(J7:J11)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="29">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="27">
         <f>SUM(D12:I12)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1990,7 +1988,7 @@
     <mergeCell ref="D5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2001,92 +1999,92 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="32" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup scale="91" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>